--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="results_bb" localSheetId="2">Arkusz3!$A$1:$H$2</definedName>
+    <definedName name="results_brute" localSheetId="2">Arkusz3!$A$7:$H$8</definedName>
     <definedName name="sum" localSheetId="1">Arkusz2!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -29,7 +32,35 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="sum" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" name="results_bb" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="852" firstRow="2" sourceFile="C:\Users\Olaf\Desktop\PEA LAB\PEA_LAB_1\PEA_LAB_1\results_bb.csv" thousands=" " tab="0" semicolon="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="results_brute" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="852" firstRow="2" sourceFile="C:\Users\Olaf\Desktop\PEA LAB\PEA_LAB_1\PEA_LAB_1\results_brute.csv" thousands=" " semicolon="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="sum" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="852" sourceFile="C:\Users\Olaf\Desktop\PEA LAB\PEA_LAB_1\PEA_LAB_1\sum.csv" thousands=" " semicolon="1">
       <textFields count="9">
         <textField/>
@@ -48,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>N</t>
   </si>
@@ -66,6 +97,9 @@
       </rPr>
       <t>μs]</t>
     </r>
+  </si>
+  <si>
+    <t>bb</t>
   </si>
 </sst>
 </file>
@@ -601,6 +635,828 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Czas wykonania BruteForce [ms]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz3!$A$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz3!$A$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.59475E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8908000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51723200000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.240500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>495.42599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2147.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5284-489A-A5AA-489828083210}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="332267680"/>
+        <c:axId val="332268336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="332267680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ilość przedmiotów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332268336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="332268336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> wykonania</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332267680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Czas wykonania B&amp;B [ms]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz3!$A$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz3!$A$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.01685E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.132937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61743999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9987900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.454699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.225700000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>378.81299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-606C-485F-8DFF-F06449D3B52A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="413631432"/>
+        <c:axId val="413627168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="413631432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ilość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> przedmiotów</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413627168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="413627168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas wykonania</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413631432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -641,7 +1497,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1198,8 +3166,93 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42283A83-7480-4B61-B7F8-8BF519081D32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE6EAAA-D60E-4E0B-8D47-3EFBE3D87D9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sum" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sum" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_brute" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_bb" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1501,7 +3554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
@@ -1577,7 +3630,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection activeCell="B26" sqref="B26:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,4 +3671,116 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>50</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>150</v>
+      </c>
+      <c r="E1">
+        <v>200</v>
+      </c>
+      <c r="F1">
+        <v>250</v>
+      </c>
+      <c r="G1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.01685E-2</v>
+      </c>
+      <c r="B2">
+        <v>0.132937</v>
+      </c>
+      <c r="C2">
+        <v>0.61743999999999999</v>
+      </c>
+      <c r="D2">
+        <v>3.9987900000000001</v>
+      </c>
+      <c r="E2">
+        <v>19.454699999999999</v>
+      </c>
+      <c r="F2">
+        <v>56.225700000000003</v>
+      </c>
+      <c r="G2">
+        <v>378.81299999999999</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.59475E-3</v>
+      </c>
+      <c r="B8">
+        <v>1.8908000000000001E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.51723200000000003</v>
+      </c>
+      <c r="D8">
+        <v>15.240500000000001</v>
+      </c>
+      <c r="E8">
+        <v>495.42599999999999</v>
+      </c>
+      <c r="F8">
+        <v>2147.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>